--- a/ESPN sports website/IPL/Gujarat Titans/Matthew Wade †.xlsx
+++ b/ESPN sports website/IPL/Gujarat Titans/Matthew Wade †.xlsx
@@ -445,31 +445,31 @@
         <v>Matthew Wade †</v>
       </c>
       <c r="C2" t="str">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D2" t="str">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" t="str">
         <v>0</v>
       </c>
       <c r="G2" t="str">
-        <v>200.00</v>
+        <v>85.71</v>
       </c>
       <c r="H2" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Punjab Kings</v>
       </c>
       <c r="I2" t="str">
-        <v>DY Patil</v>
+        <v>Brabourne</v>
       </c>
       <c r="J2" t="str">
-        <v>April 14, 2022</v>
+        <v>April 08, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>Titans won by 37 runs</v>
+        <v>Titans won by 6 wickets</v>
       </c>
     </row>
     <row r="3">
@@ -480,31 +480,31 @@
         <v>Matthew Wade †</v>
       </c>
       <c r="C3" t="str">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D3" t="str">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="E3" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="str">
         <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>103.44</v>
+        <v>200.00</v>
       </c>
       <c r="H3" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="I3" t="str">
-        <v>Wankhede</v>
+        <v>DY Patil</v>
       </c>
       <c r="J3" t="str">
-        <v>March 28, 2022</v>
+        <v>April 14, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>Titans won by 5 wickets (with 2 balls remaining)</v>
+        <v>Titans won by 37 runs</v>
       </c>
     </row>
     <row r="4">
@@ -550,31 +550,31 @@
         <v>Matthew Wade †</v>
       </c>
       <c r="C5" t="str">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D5" t="str">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E5" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5" t="str">
         <v>0</v>
       </c>
       <c r="G5" t="str">
-        <v>85.71</v>
+        <v>103.44</v>
       </c>
       <c r="H5" t="str">
-        <v>Punjab Kings</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I5" t="str">
-        <v>Brabourne</v>
+        <v>Wankhede</v>
       </c>
       <c r="J5" t="str">
-        <v>April 08, 2022</v>
+        <v>March 28, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>Titans won by 6 wickets</v>
+        <v>Titans won by 5 wickets (with 2 balls remaining)</v>
       </c>
     </row>
     <row r="6">
